--- a/freqs.xlsx
+++ b/freqs.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="chan" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="zone" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="scan" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -123,6 +124,4336 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G21" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F30" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G32" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G34" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G35" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G36" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D45" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F45" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G45" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F46" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G46" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F48" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E49" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F49" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G49" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D50" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F50" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G51" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G52" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D53" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G53" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D54" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E54" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F54" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G54" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D55" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E55" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F55" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G55" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D56" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F56" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G56" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D57" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E57" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F57" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G57" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D58" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E58" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F58" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G58" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D59" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E59" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F59" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G59" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D60" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E60" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F60" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G60" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D61" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E61" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F61" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G61" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E62" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F62" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G62" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D63" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E63" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F63" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G63" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E64" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F64" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G64" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D65" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E65" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F65" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G65" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C66" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D66" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E66" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F66" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G66" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E67" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F67" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G67" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C68" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D68" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E68" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F68" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G68" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C69" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D69" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E69" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F69" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G69" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C70" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D70" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E70" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F70" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G70" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C71" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D71" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E71" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F71" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G71" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C72" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D72" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E72" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F72" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G72" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B73" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C73" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D73" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E73" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F73" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G73" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C74" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D74" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E74" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F74" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G74" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C75" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D75" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E75" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F75" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G75" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E76" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F76" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G76" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B77" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D77" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E77" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F77" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G77" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B78" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C78" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D78" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E78" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F78" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G78" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B79" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C79" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D79" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E79" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F79" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G79" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B80" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D80" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E80" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F80" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G80" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B81" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C81" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D81" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E81" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F81" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G81" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B82" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C82" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D82" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E82" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F82" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G82" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B83" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C83" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D83" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E83" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F83" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G83" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D84" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E84" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F84" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G84" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D85" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E85" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F85" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G85" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B86" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D86" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E86" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F86" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G86" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B87" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D87" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E87" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F87" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G87" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B88" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D88" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E88" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F88" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G88" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D89" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E89" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F89" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G89" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B90" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D90" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E90" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F90" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G90" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B91" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D91" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E91" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F91" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G91" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B92" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C92" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D92" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E92" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F92" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G92" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B93" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C93" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D93" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E93" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F93" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G93" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B94" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D94" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E94" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F94" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G94" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B95" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C95" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D95" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E95" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F95" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G95" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B96" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C96" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D96" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E96" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F96" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G96" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B97" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C97" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D97" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E97" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F97" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G97" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B98" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D98" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E98" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F98" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G98" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B99" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C99" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D99" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E99" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F99" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G99" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B100" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C100" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D100" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E100" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F100" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G100" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B101" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C101" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D101" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E101" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F101" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G101" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B102" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C102" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D102" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E102" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F102" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G102" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B103" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="C103" authorId="0" shapeId="0">
+      <text>
+        <t>TX shift.
+let empty if same than RX.</t>
+      </text>
+    </comment>
+    <comment ref="D103" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E103" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F103" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G103" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B104" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D104" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E104" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F104" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G104" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+    <comment ref="B105" authorId="0" shapeId="0">
+      <text>
+        <t>Could be the shift from previous Channel.</t>
+      </text>
+    </comment>
+    <comment ref="D105" authorId="0" shapeId="0">
+      <text>
+        <t>Starts with 'D'=&gt; DCS
+ + ends with 'I'=&gt; Inverted.
+Else =&gt; Ctcss.</t>
+      </text>
+    </comment>
+    <comment ref="E105" authorId="0" shapeId="0">
+      <text>
+        <t>Examples:
+Ctcss 67.0 Hz / DCS 446 I / Tone 67.0 / T67.0 / D023 / D023I</t>
+      </text>
+    </comment>
+    <comment ref="F105" authorId="0" shapeId="0">
+      <text>
+        <t>high/DTMF/wide/autoscan/lonework/dmr/talkaround/directTDMA/privateconfirm</t>
+      </text>
+    </comment>
+    <comment ref="G105" authorId="0" shapeId="0">
+      <text>
+        <t>talkgroup/PTTstate/colorcode/slot/encryption/alarm/autoscanlist/PTTID/receivegroup</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>priority 1:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>priority 1:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>priority 1:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <t>priority 1:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <t>priority 2:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>priority 2:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <t>priority 2:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <t>priority 2:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <t>TX Reply:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>TX Reply:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <t>TX Reply:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <t>TX Reply:
+fixed
+channel
+selected</t>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <t>Rx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Rx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <t>Rx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <t>Rx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <t>Tx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <t>Tx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <t>Tx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <t>Tx Residence Time</t>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0">
+      <text>
+        <t>Must refers to the cell like:
+=chan!$A1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,12 +4740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,10 +4753,111 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="41" max="41"/>
+    <col width="15" customWidth="1" min="42" max="42"/>
+    <col width="15" customWidth="1" min="43" max="43"/>
+    <col width="15" customWidth="1" min="44" max="44"/>
+    <col width="15" customWidth="1" min="45" max="45"/>
+    <col width="15" customWidth="1" min="46" max="46"/>
+    <col width="15" customWidth="1" min="47" max="47"/>
+    <col width="15" customWidth="1" min="48" max="48"/>
+    <col width="15" customWidth="1" min="49" max="49"/>
+    <col width="15" customWidth="1" min="50" max="50"/>
+    <col width="15" customWidth="1" min="51" max="51"/>
+    <col width="15" customWidth="1" min="52" max="52"/>
+    <col width="15" customWidth="1" min="53" max="53"/>
+    <col width="15" customWidth="1" min="54" max="54"/>
+    <col width="15" customWidth="1" min="55" max="55"/>
+    <col width="15" customWidth="1" min="56" max="56"/>
+    <col width="15" customWidth="1" min="57" max="57"/>
+    <col width="15" customWidth="1" min="58" max="58"/>
+    <col width="15" customWidth="1" min="59" max="59"/>
+    <col width="15" customWidth="1" min="60" max="60"/>
+    <col width="15" customWidth="1" min="61" max="61"/>
+    <col width="15" customWidth="1" min="62" max="62"/>
+    <col width="15" customWidth="1" min="63" max="63"/>
+    <col width="15" customWidth="1" min="64" max="64"/>
+    <col width="15" customWidth="1" min="65" max="65"/>
+    <col width="15" customWidth="1" min="66" max="66"/>
+    <col width="15" customWidth="1" min="67" max="67"/>
+    <col width="15" customWidth="1" min="68" max="68"/>
+    <col width="15" customWidth="1" min="69" max="69"/>
+    <col width="15" customWidth="1" min="70" max="70"/>
+    <col width="15" customWidth="1" min="71" max="71"/>
+    <col width="15" customWidth="1" min="72" max="72"/>
+    <col width="15" customWidth="1" min="73" max="73"/>
+    <col width="15" customWidth="1" min="74" max="74"/>
+    <col width="15" customWidth="1" min="75" max="75"/>
+    <col width="15" customWidth="1" min="76" max="76"/>
+    <col width="15" customWidth="1" min="77" max="77"/>
+    <col width="15" customWidth="1" min="78" max="78"/>
+    <col width="15" customWidth="1" min="79" max="79"/>
+    <col width="15" customWidth="1" min="80" max="80"/>
+    <col width="15" customWidth="1" min="81" max="81"/>
+    <col width="15" customWidth="1" min="82" max="82"/>
+    <col width="15" customWidth="1" min="83" max="83"/>
+    <col width="15" customWidth="1" min="84" max="84"/>
+    <col width="15" customWidth="1" min="85" max="85"/>
+    <col width="15" customWidth="1" min="86" max="86"/>
+    <col width="15" customWidth="1" min="87" max="87"/>
+    <col width="15" customWidth="1" min="88" max="88"/>
+    <col width="15" customWidth="1" min="89" max="89"/>
+    <col width="15" customWidth="1" min="90" max="90"/>
+    <col width="15" customWidth="1" min="91" max="91"/>
+    <col width="15" customWidth="1" min="92" max="92"/>
+    <col width="15" customWidth="1" min="93" max="93"/>
+    <col width="15" customWidth="1" min="94" max="94"/>
+    <col width="15" customWidth="1" min="95" max="95"/>
+    <col width="15" customWidth="1" min="96" max="96"/>
+    <col width="15" customWidth="1" min="97" max="97"/>
+    <col width="15" customWidth="1" min="98" max="98"/>
+    <col width="15" customWidth="1" min="99" max="99"/>
+    <col width="15" customWidth="1" min="100" max="100"/>
+    <col width="15" customWidth="1" min="101" max="101"/>
+    <col width="15" customWidth="1" min="102" max="102"/>
+    <col width="15" customWidth="1" min="103" max="103"/>
+    <col width="15" customWidth="1" min="104" max="104"/>
+    <col width="15" customWidth="1" min="105" max="105"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2959,2713 +7391,14 @@
       </c>
       <c r="G105" t="inlineStr"/>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>POLICE  00</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>464.50000</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>POLICE  01</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>POLICE  02</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>POLICE  03</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>POLICE  04</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>POLICE  05</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>POLICE  06</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>POLICE  07</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>POLICE  08</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>POLICE  09</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>POLICE  10</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>POLICE  11</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>POLICE  12</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>POLICE  13</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>POLICE  14</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>POLICE  15</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>POLICE  16</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>POLICE  17</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>POLICE  18</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>POLICE  19</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>POLICE  20</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>POLICE  21</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>POLICE  22</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>POLICE  23</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>POLICE  24</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>POLICE  25</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>POLICE  26</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>POLICE  27</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>POLICE  28</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>POLICE  29</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>POLICE  30</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>POLICE  31</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>POLICE  32</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>POLICE  33</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>POLICE  34</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>POLICE  35</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>POLICE  36</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>POLICE  37</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>POLICE  38</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>POLICE  39</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>POLICE  40</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>POLICE  41</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>POLICE  42</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>POLICE  43</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>POLICE  44</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>POLICE  45</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>POLICE  46</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>POLICE  47</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>POLICE  48</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>POLICE  49</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>POLICE D00</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>464.50000</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>POLICE D01</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>POLICE D02</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>POLICE D03</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>POLICE D04</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>POLICE D05</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>POLICE D06</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>POLICE D07</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>POLICE D08</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>POLICE D09</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>POLICE D10</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>POLICE D11</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>POLICE D12</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>POLICE D13</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>POLICE D14</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>POLICE D15</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>POLICE D16</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>POLICE D17</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>POLICE D18</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>POLICE D19</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>POLICE D20</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>POLICE D21</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>POLICE D22</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>POLICE D23</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>POLICE D24</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>POLICE D25</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>POLICE D26</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>POLICE D27</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>POLICE D28</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>POLICE D29</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>POLICE D30</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>POLICE D31</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>POLICE D32</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>POLICE D33</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>POLICE D34</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>POLICE D35</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>POLICE D36</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>POLICE D37</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>POLICE D38</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>POLICE D39</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>POLICE D40</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>POLICE D41</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>POLICE D42</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>POLICE D43</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>POLICE D44</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>POLICE D45</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>POLICE D46</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>POLICE D47</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>POLICE D48</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>POLICE D49</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>+0.02500</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>high/dmr</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>slot:1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5677,6 +7410,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -6186,5 +7925,506 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DMR</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>VHF</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>VHF 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>chan!$A1</f>
+        <v/>
+      </c>
+      <c r="B3">
+        <f>chan!$A33</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>chan!$A64</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>chan!$A77</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f>chan!$A1</f>
+        <v/>
+      </c>
+      <c r="B5">
+        <f>chan!$A33</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>chan!$A64</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>chan!$A77</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>chan!$A1</f>
+        <v/>
+      </c>
+      <c r="B7">
+        <f>chan!$A33</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>chan!$A64</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>chan!$A77</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <f>chan!$A1</f>
+        <v/>
+      </c>
+      <c r="B10">
+        <f>chan!$A33</f>
+        <v/>
+      </c>
+      <c r="C10">
+        <f>chan!$A49</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <f>chan!$A77</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <f>chan!$A2</f>
+        <v/>
+      </c>
+      <c r="B11">
+        <f>chan!$A34</f>
+        <v/>
+      </c>
+      <c r="C11">
+        <f>chan!$A50</f>
+        <v/>
+      </c>
+      <c r="D11">
+        <f>chan!$A78</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <f>chan!$A3</f>
+        <v/>
+      </c>
+      <c r="B12">
+        <f>chan!$A35</f>
+        <v/>
+      </c>
+      <c r="C12">
+        <f>chan!$A51</f>
+        <v/>
+      </c>
+      <c r="D12">
+        <f>chan!$A79</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <f>chan!$A4</f>
+        <v/>
+      </c>
+      <c r="B13">
+        <f>chan!$A36</f>
+        <v/>
+      </c>
+      <c r="C13">
+        <f>chan!$A52</f>
+        <v/>
+      </c>
+      <c r="D13">
+        <f>chan!$A80</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <f>chan!$A5</f>
+        <v/>
+      </c>
+      <c r="B14">
+        <f>chan!$A37</f>
+        <v/>
+      </c>
+      <c r="C14">
+        <f>chan!$A53</f>
+        <v/>
+      </c>
+      <c r="D14">
+        <f>chan!$A81</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <f>chan!$A6</f>
+        <v/>
+      </c>
+      <c r="B15">
+        <f>chan!$A38</f>
+        <v/>
+      </c>
+      <c r="C15">
+        <f>chan!$A54</f>
+        <v/>
+      </c>
+      <c r="D15">
+        <f>chan!$A82</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <f>chan!$A7</f>
+        <v/>
+      </c>
+      <c r="B16">
+        <f>chan!$A39</f>
+        <v/>
+      </c>
+      <c r="C16">
+        <f>chan!$A55</f>
+        <v/>
+      </c>
+      <c r="D16">
+        <f>chan!$A83</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <f>chan!$A8</f>
+        <v/>
+      </c>
+      <c r="B17">
+        <f>chan!$A40</f>
+        <v/>
+      </c>
+      <c r="C17">
+        <f>chan!$A56</f>
+        <v/>
+      </c>
+      <c r="D17">
+        <f>chan!$A84</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <f>chan!$A9</f>
+        <v/>
+      </c>
+      <c r="B18">
+        <f>chan!$A41</f>
+        <v/>
+      </c>
+      <c r="C18">
+        <f>chan!$A57</f>
+        <v/>
+      </c>
+      <c r="D18">
+        <f>chan!$A85</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <f>chan!$A10</f>
+        <v/>
+      </c>
+      <c r="B19">
+        <f>chan!$A42</f>
+        <v/>
+      </c>
+      <c r="C19">
+        <f>chan!$A58</f>
+        <v/>
+      </c>
+      <c r="D19">
+        <f>chan!$A86</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <f>chan!$A11</f>
+        <v/>
+      </c>
+      <c r="B20">
+        <f>chan!$A43</f>
+        <v/>
+      </c>
+      <c r="C20">
+        <f>chan!$A59</f>
+        <v/>
+      </c>
+      <c r="D20">
+        <f>chan!$A87</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <f>chan!$A12</f>
+        <v/>
+      </c>
+      <c r="B21">
+        <f>chan!$A44</f>
+        <v/>
+      </c>
+      <c r="C21">
+        <f>chan!$A60</f>
+        <v/>
+      </c>
+      <c r="D21">
+        <f>chan!$A88</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <f>chan!$A13</f>
+        <v/>
+      </c>
+      <c r="B22">
+        <f>chan!$A45</f>
+        <v/>
+      </c>
+      <c r="C22">
+        <f>chan!$A61</f>
+        <v/>
+      </c>
+      <c r="D22">
+        <f>chan!$A89</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <f>chan!$A14</f>
+        <v/>
+      </c>
+      <c r="B23">
+        <f>chan!$A46</f>
+        <v/>
+      </c>
+      <c r="C23">
+        <f>chan!$A62</f>
+        <v/>
+      </c>
+      <c r="D23">
+        <f>chan!$A90</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <f>chan!$A15</f>
+        <v/>
+      </c>
+      <c r="B24">
+        <f>chan!$A47</f>
+        <v/>
+      </c>
+      <c r="C24">
+        <f>chan!$A63</f>
+        <v/>
+      </c>
+      <c r="D24">
+        <f>chan!$A91</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <f>chan!$A16</f>
+        <v/>
+      </c>
+      <c r="B25">
+        <f>chan!$A48</f>
+        <v/>
+      </c>
+      <c r="C25">
+        <f>chan!$A64</f>
+        <v/>
+      </c>
+      <c r="D25">
+        <f>chan!$A92</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>